--- a/Assessment 1 Team Contribution Sheet code review.xlsx
+++ b/Assessment 1 Team Contribution Sheet code review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggiewoodward/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED05E75D-C6C5-6B40-8FC1-5507E790AFC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7F3623-A653-1B4B-ACA0-08BAFD0CEBDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8960" xr2:uid="{EA149F93-FE08-44F5-A732-4F1A985B1F8A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="24500" windowHeight="12860" xr2:uid="{EA149F93-FE08-44F5-A732-4F1A985B1F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,13 +106,19 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -261,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -302,6 +308,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +633,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -667,7 +679,9 @@
       <c r="E4" s="7">
         <v>25</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -683,7 +697,9 @@
       <c r="E5" s="7">
         <v>25</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -699,8 +715,8 @@
       <c r="E6" s="7">
         <v>25</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
@@ -715,7 +731,9 @@
       <c r="E7" s="7">
         <v>25</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>100</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.2">

--- a/Assessment 1 Team Contribution Sheet code review.xlsx
+++ b/Assessment 1 Team Contribution Sheet code review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggiewoodward/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7F3623-A653-1B4B-ACA0-08BAFD0CEBDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A87650-78E6-3E43-9B78-24A9321CA021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2580" windowWidth="24500" windowHeight="12860" xr2:uid="{EA149F93-FE08-44F5-A732-4F1A985B1F8A}"/>
   </bookViews>
@@ -300,6 +300,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -308,12 +314,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +633,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -682,7 +682,9 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>33.299999999999997</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -700,7 +702,9 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>33.299999999999997</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -715,8 +719,8 @@
       <c r="E6" s="7">
         <v>25</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
@@ -734,7 +738,9 @@
       <c r="F7" s="7">
         <v>100</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>33.299999999999997</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
@@ -757,14 +763,14 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
